--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranshamay/devl/Code/react-pptx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C054943-FBBD-AD45-A64E-41A1B6C498BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E55070E-8D3B-D042-A4DB-BEC8BBD7C424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26440" xr2:uid="{6B434198-A64F-8849-A89C-F67E5CAB10E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>xxx</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>fff</t>
+  </si>
+  <si>
+    <t>בלה בלה</t>
   </si>
 </sst>
 </file>
@@ -434,14 +437,14 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>123</v>
+      <c r="A1" t="s">
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
